--- a/out/AC/AC 1427.xlsx
+++ b/out/AC/AC 1427.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Kundenr</t>
   </si>
@@ -329,7 +329,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>4% filler,47% containsProduct,47% QuantityHeader,</t>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t xml:space="preserve">PRODUKT, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTAL, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -729,7 +735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -10073,7 +10079,7 @@
       <c r="C32" s="17">
         <v>24290</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="15" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="18">
@@ -17075,11 +17081,11 @@
       <c r="D1" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+      <c r="E1" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -17101,10 +17107,10 @@
       <c r="D2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2" s="33">
         <v>0.26</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2" s="34">
         <v>2.6</v>
       </c>
       <c r="G2" s="0">
@@ -17128,10 +17134,10 @@
       <c r="D3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3" s="33">
         <v>0.1</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3" s="34">
         <v>1.565</v>
       </c>
       <c r="G3" s="0">
@@ -17155,10 +17161,10 @@
       <c r="D4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4" s="33">
         <v>24.05</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4" s="34">
         <v>144.3</v>
       </c>
       <c r="G4" s="0">
@@ -17182,10 +17188,10 @@
       <c r="D5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5" s="33">
         <v>7.37</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5" s="34">
         <v>33.5</v>
       </c>
       <c r="G5" s="0">
@@ -17209,10 +17215,10 @@
       <c r="D6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6" s="33">
         <v>1.1</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6" s="34">
         <v>5</v>
       </c>
       <c r="G6" s="0">
@@ -17236,10 +17242,10 @@
       <c r="D7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7" s="33">
         <v>2</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7" s="34">
         <v>20</v>
       </c>
       <c r="G7" s="0">
@@ -17263,10 +17269,10 @@
       <c r="D8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8" s="33">
         <v>0.29</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8" s="34">
         <v>3.42</v>
       </c>
       <c r="G8" s="0">
@@ -17290,10 +17296,10 @@
       <c r="D9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9" s="33">
         <v>1.28</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9" s="34">
         <v>13.099</v>
       </c>
       <c r="G9" s="0">
@@ -17317,10 +17323,10 @@
       <c r="D10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10" s="33">
         <v>0.84</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10" s="34">
         <v>4.165</v>
       </c>
       <c r="G10" s="0">
@@ -17344,10 +17350,10 @@
       <c r="D11" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11" s="33">
         <v>5.79</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11" s="34">
         <v>60.333</v>
       </c>
       <c r="G11" s="0">
@@ -17371,10 +17377,10 @@
       <c r="D12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12" s="33">
         <v>9.48</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12" s="34">
         <v>49.293</v>
       </c>
       <c r="G12" s="0">
@@ -17398,10 +17404,10 @@
       <c r="D13" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13" s="33">
         <v>0.81</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13" s="34">
         <v>2.457</v>
       </c>
       <c r="G13" s="0">
@@ -17425,10 +17431,10 @@
       <c r="D14" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14" s="33">
         <v>4.38</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14" s="34">
         <v>20.125</v>
       </c>
       <c r="G14" s="0">
@@ -17452,10 +17458,10 @@
       <c r="D15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15" s="33">
         <v>0.16</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15" s="34">
         <v>1.529</v>
       </c>
       <c r="G15" s="0">
@@ -17479,10 +17485,10 @@
       <c r="D16" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16" s="33">
         <v>0.77</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16" s="34">
         <v>9.31</v>
       </c>
       <c r="G16" s="0">
@@ -17506,10 +17512,10 @@
       <c r="D17" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17" s="33">
         <v>0.42</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17" s="34">
         <v>5.3</v>
       </c>
       <c r="G17" s="0">
@@ -17533,10 +17539,10 @@
       <c r="D18" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18" s="33">
         <v>4.76</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18" s="34">
         <v>10.75</v>
       </c>
       <c r="G18" s="0">
@@ -17560,10 +17566,10 @@
       <c r="D19" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19" s="33">
         <v>87</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19" s="34">
         <v>522</v>
       </c>
       <c r="G19" s="0">
@@ -17587,10 +17593,10 @@
       <c r="D20" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20" s="33">
         <v>6</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20" s="34">
         <v>18</v>
       </c>
       <c r="G20" s="0">
@@ -17614,10 +17620,10 @@
       <c r="D21" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21" s="33">
         <v>1</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21" s="34">
         <v>1</v>
       </c>
       <c r="G21" s="0">
@@ -17641,10 +17647,10 @@
       <c r="D22" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22" s="33">
         <v>10</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22" s="34">
         <v>45</v>
       </c>
       <c r="G22" s="0">
@@ -17668,10 +17674,10 @@
       <c r="D23" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23" s="33">
         <v>30</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23" s="34">
         <v>300</v>
       </c>
       <c r="G23" s="0">
@@ -17695,10 +17701,10 @@
       <c r="D24" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24" s="33">
         <v>33</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24" s="34">
         <v>148.5</v>
       </c>
       <c r="G24" s="0">
@@ -17722,10 +17728,10 @@
       <c r="D25" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25" s="33">
         <v>1</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25" s="34">
         <v>5</v>
       </c>
       <c r="G25" s="0">
@@ -17749,10 +17755,10 @@
       <c r="D26" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26" s="33">
         <v>0.42</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26" s="34">
         <v>1.67</v>
       </c>
       <c r="G26" s="0">
@@ -17776,10 +17782,10 @@
       <c r="D27" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27" s="33">
         <v>0.06</v>
       </c>
-      <c r="F27" s="0">
+      <c r="F27" s="34">
         <v>0.313</v>
       </c>
       <c r="G27" s="0">
@@ -17803,10 +17809,10 @@
       <c r="D28" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28" s="33">
         <v>0.21</v>
       </c>
-      <c r="F28" s="0">
+      <c r="F28" s="34">
         <v>1.071</v>
       </c>
       <c r="G28" s="0">
@@ -17830,10 +17836,10 @@
       <c r="D29" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29" s="33">
         <v>88.6</v>
       </c>
-      <c r="F29" s="0">
+      <c r="F29" s="34">
         <v>442.997</v>
       </c>
       <c r="G29" s="0">
@@ -17857,10 +17863,10 @@
       <c r="D30" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30" s="33">
         <v>0.18</v>
       </c>
-      <c r="F30" s="0">
+      <c r="F30" s="34">
         <v>0.908</v>
       </c>
       <c r="G30" s="0">
@@ -17884,10 +17890,10 @@
       <c r="D31" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31" s="33">
         <v>1.73</v>
       </c>
-      <c r="F31" s="0">
+      <c r="F31" s="34">
         <v>8.632</v>
       </c>
       <c r="G31" s="0">
@@ -17899,22 +17905,22 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0">
+      <c r="A32" s="33">
         <v>1427</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32" s="33">
         <v>24290</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32" s="33">
         <v>0.07</v>
       </c>
-      <c r="F32" s="0">
+      <c r="F32" s="34">
         <v>0.4</v>
       </c>
       <c r="G32" s="0">
@@ -17926,22 +17932,22 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0">
+      <c r="A33" s="33">
         <v>1427</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33" s="33">
         <v>24820</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33" s="33">
         <v>0.05</v>
       </c>
-      <c r="F33" s="0">
+      <c r="F33" s="34">
         <v>0.125</v>
       </c>
       <c r="G33" s="0">
@@ -17953,22 +17959,22 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0">
+      <c r="A34" s="33">
         <v>1427</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34" s="33">
         <v>25060</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34" s="33">
         <v>24</v>
       </c>
-      <c r="F34" s="0">
+      <c r="F34" s="34">
         <v>24</v>
       </c>
       <c r="G34" s="0">
@@ -17980,22 +17986,22 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0">
+      <c r="A35" s="33">
         <v>1427</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35" s="33">
         <v>25720</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35" s="33">
         <v>2</v>
       </c>
-      <c r="F35" s="0">
+      <c r="F35" s="34">
         <v>1.4</v>
       </c>
       <c r="G35" s="0">
@@ -18007,22 +18013,22 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0">
+      <c r="A36" s="33">
         <v>1427</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36" s="33">
         <v>25730</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36" s="33">
         <v>44</v>
       </c>
-      <c r="F36" s="0">
+      <c r="F36" s="34">
         <v>35.2</v>
       </c>
       <c r="G36" s="0">
@@ -18034,22 +18040,22 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0">
+      <c r="A37" s="33">
         <v>1427</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37" s="33">
         <v>26260</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37" s="33">
         <v>1.8</v>
       </c>
-      <c r="F37" s="0">
+      <c r="F37" s="34">
         <v>5.4</v>
       </c>
       <c r="G37" s="0">
@@ -18061,22 +18067,22 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0">
+      <c r="A38" s="33">
         <v>1427</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38" s="33">
         <v>28800</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38" s="33">
         <v>0.16</v>
       </c>
-      <c r="F38" s="0">
+      <c r="F38" s="34">
         <v>1.8</v>
       </c>
       <c r="G38" s="0">
@@ -18088,22 +18094,22 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0">
+      <c r="A39" s="33">
         <v>1427</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39" s="33">
         <v>32540</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39" s="33">
         <v>0.08</v>
       </c>
-      <c r="F39" s="0">
+      <c r="F39" s="34">
         <v>1</v>
       </c>
       <c r="G39" s="0">
@@ -18115,22 +18121,22 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0">
+      <c r="A40" s="33">
         <v>1427</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40" s="33">
         <v>32900</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40" s="33">
         <v>0.17</v>
       </c>
-      <c r="F40" s="0">
+      <c r="F40" s="34">
         <v>1</v>
       </c>
       <c r="G40" s="0">
@@ -18142,22 +18148,22 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0">
+      <c r="A41" s="33">
         <v>1427</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41" s="33">
         <v>32990</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41" s="33">
         <v>41</v>
       </c>
-      <c r="F41" s="0">
+      <c r="F41" s="34">
         <v>41</v>
       </c>
       <c r="G41" s="0">
@@ -18169,22 +18175,22 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0">
+      <c r="A42" s="33">
         <v>1427</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42" s="33">
         <v>33810</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42" s="33">
         <v>2</v>
       </c>
-      <c r="F42" s="0">
+      <c r="F42" s="34">
         <v>2</v>
       </c>
       <c r="G42" s="0">
@@ -18196,22 +18202,22 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0">
+      <c r="A43" s="33">
         <v>1427</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43" s="33">
         <v>33850</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43" s="33">
         <v>0.21</v>
       </c>
-      <c r="F43" s="0">
+      <c r="F43" s="34">
         <v>0.321</v>
       </c>
       <c r="G43" s="0">
@@ -18223,22 +18229,22 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0">
+      <c r="A44" s="33">
         <v>1427</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44" s="33">
         <v>35120</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="0">
+      <c r="E44" s="33">
         <v>3</v>
       </c>
-      <c r="F44" s="0">
+      <c r="F44" s="34">
         <v>3</v>
       </c>
       <c r="G44" s="0">
@@ -18250,22 +18256,22 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0">
+      <c r="A45" s="33">
         <v>1427</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45" s="33">
         <v>44990</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="0">
+      <c r="E45" s="33">
         <v>0.26</v>
       </c>
-      <c r="F45" s="0">
+      <c r="F45" s="34">
         <v>0.2</v>
       </c>
       <c r="G45" s="0">
@@ -18277,22 +18283,22 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0">
+      <c r="A46" s="33">
         <v>1427</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46" s="33">
         <v>45510</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="0">
+      <c r="E46" s="33">
         <v>1.29</v>
       </c>
-      <c r="F46" s="0">
+      <c r="F46" s="34">
         <v>3.13</v>
       </c>
       <c r="G46" s="0">
@@ -18304,22 +18310,22 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0">
+      <c r="A47" s="33">
         <v>1427</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47" s="33">
         <v>45520</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="0">
+      <c r="E47" s="33">
         <v>1.29</v>
       </c>
-      <c r="F47" s="0">
+      <c r="F47" s="34">
         <v>3.13</v>
       </c>
       <c r="G47" s="0">
@@ -18331,22 +18337,22 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0">
+      <c r="A48" s="33">
         <v>1427</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48" s="33">
         <v>72200</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="0">
+      <c r="E48" s="33">
         <v>95</v>
       </c>
-      <c r="F48" s="0">
+      <c r="F48" s="34">
         <v>14.25</v>
       </c>
       <c r="G48" s="0">
@@ -18358,22 +18364,22 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0">
+      <c r="A49" s="33">
         <v>1427</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49" s="33">
         <v>73300</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="0">
+      <c r="E49" s="33">
         <v>27</v>
       </c>
-      <c r="F49" s="0">
+      <c r="F49" s="34">
         <v>27</v>
       </c>
       <c r="G49" s="0">
@@ -18385,22 +18391,22 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0">
+      <c r="A50" s="33">
         <v>1427</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50" s="33">
         <v>74410</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="0">
+      <c r="E50" s="33">
         <v>277</v>
       </c>
-      <c r="F50" s="0">
+      <c r="F50" s="34">
         <v>55.4</v>
       </c>
       <c r="G50" s="0">
@@ -18412,22 +18418,22 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0">
+      <c r="A51" s="33">
         <v>1427</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51" s="33">
         <v>76800</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="0">
+      <c r="E51" s="33">
         <v>1</v>
       </c>
-      <c r="F51" s="0">
+      <c r="F51" s="34">
         <v>0.1</v>
       </c>
       <c r="G51" s="0">
@@ -18439,22 +18445,22 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0">
+      <c r="A52" s="33">
         <v>1427</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52" s="33">
         <v>79500</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52" s="33">
         <v>3</v>
       </c>
-      <c r="F52" s="0">
+      <c r="F52" s="34">
         <v>0.225</v>
       </c>
       <c r="G52" s="0">
@@ -18466,22 +18472,22 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0">
+      <c r="A53" s="33">
         <v>1427</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53" s="33">
         <v>79540</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53" s="33">
         <v>96</v>
       </c>
-      <c r="F53" s="0">
+      <c r="F53" s="34">
         <v>7.2</v>
       </c>
       <c r="G53" s="0">
@@ -18493,22 +18499,22 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0">
+      <c r="A54" s="33">
         <v>1427</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54" s="33">
         <v>79610</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54" s="33">
         <v>9</v>
       </c>
-      <c r="F54" s="0">
+      <c r="F54" s="34">
         <v>0.675</v>
       </c>
       <c r="G54" s="0">
@@ -18520,22 +18526,22 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0">
+      <c r="A55" s="33">
         <v>1427</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55" s="33">
         <v>79680</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55" s="33">
         <v>268</v>
       </c>
-      <c r="F55" s="0">
+      <c r="F55" s="34">
         <v>13.4</v>
       </c>
       <c r="G55" s="0">
@@ -18547,22 +18553,22 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0">
+      <c r="A56" s="33">
         <v>1427</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56" s="33">
         <v>79810</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56" s="33">
         <v>12</v>
       </c>
-      <c r="F56" s="0">
+      <c r="F56" s="34">
         <v>12</v>
       </c>
       <c r="G56" s="0">
@@ -18574,22 +18580,22 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0">
+      <c r="A57" s="33">
         <v>1427</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57" s="33">
         <v>83000</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57" s="33">
         <v>0.17</v>
       </c>
-      <c r="F57" s="0">
+      <c r="F57" s="34">
         <v>0.8</v>
       </c>
       <c r="G57" s="0">
@@ -18601,22 +18607,22 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0">
+      <c r="A58" s="33">
         <v>1427</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58" s="33">
         <v>190000</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58" s="33">
         <v>7</v>
       </c>
-      <c r="F58" s="0">
+      <c r="F58" s="34">
         <v>7</v>
       </c>
       <c r="G58" s="0">
@@ -18628,22 +18634,22 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0">
+      <c r="A59" s="33">
         <v>1427</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59" s="33">
         <v>910140</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59" s="33">
         <v>0.54</v>
       </c>
-      <c r="F59" s="0">
+      <c r="F59" s="34">
         <v>5.25</v>
       </c>
       <c r="G59" s="0">
@@ -18655,22 +18661,22 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0">
+      <c r="A60" s="33">
         <v>1427</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60" s="33">
         <v>910200</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60" s="33">
         <v>90</v>
       </c>
-      <c r="F60" s="0">
+      <c r="F60" s="34">
         <v>1693.8</v>
       </c>
       <c r="G60" s="0">
@@ -18682,22 +18688,22 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="0">
+      <c r="A61" s="33">
         <v>1427</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="0">
+      <c r="C61" s="33">
         <v>910210</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="0">
+      <c r="E61" s="33">
         <v>297</v>
       </c>
-      <c r="F61" s="0">
+      <c r="F61" s="34">
         <v>4039.2</v>
       </c>
       <c r="G61" s="0">
@@ -18709,22 +18715,22 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="0">
+      <c r="A62" s="33">
         <v>1427</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="0">
+      <c r="C62" s="33">
         <v>910300</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="0">
+      <c r="E62" s="33">
         <v>6</v>
       </c>
-      <c r="F62" s="0">
+      <c r="F62" s="34">
         <v>36</v>
       </c>
       <c r="G62" s="0">
@@ -18736,22 +18742,22 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="0">
+      <c r="A63" s="33">
         <v>1427</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="0">
+      <c r="C63" s="33">
         <v>910530</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="0">
+      <c r="E63" s="33">
         <v>0.1</v>
       </c>
-      <c r="F63" s="0">
+      <c r="F63" s="34">
         <v>0.4</v>
       </c>
       <c r="G63" s="0">
@@ -18763,22 +18769,22 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0">
+      <c r="A64" s="33">
         <v>1427</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="0">
+      <c r="C64" s="33">
         <v>910560</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E64" s="0">
+      <c r="E64" s="33">
         <v>0.3</v>
       </c>
-      <c r="F64" s="0">
+      <c r="F64" s="34">
         <v>1.2</v>
       </c>
       <c r="G64" s="0">
@@ -18790,22 +18796,22 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="0">
+      <c r="A65" s="33">
         <v>1427</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="0">
+      <c r="C65" s="33">
         <v>910810</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E65" s="0">
+      <c r="E65" s="33">
         <v>9.05</v>
       </c>
-      <c r="F65" s="0">
+      <c r="F65" s="34">
         <v>115.524</v>
       </c>
       <c r="G65" s="0">
@@ -18817,22 +18823,22 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0">
+      <c r="A66" s="33">
         <v>1427</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="0">
+      <c r="C66" s="33">
         <v>910890</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="E66" s="0">
+      <c r="E66" s="33">
         <v>0.05</v>
       </c>
-      <c r="F66" s="0">
+      <c r="F66" s="34">
         <v>0.652</v>
       </c>
       <c r="G66" s="0">
@@ -18844,22 +18850,22 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="0">
+      <c r="A67" s="33">
         <v>1427</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="0">
+      <c r="C67" s="33">
         <v>910920</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="E67" s="0">
+      <c r="E67" s="33">
         <v>0.05</v>
       </c>
-      <c r="F67" s="0">
+      <c r="F67" s="34">
         <v>0.524</v>
       </c>
       <c r="G67" s="0">
@@ -18871,22 +18877,22 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="0">
+      <c r="A68" s="33">
         <v>1427</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="0">
+      <c r="C68" s="33">
         <v>911250</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="E68" s="0">
+      <c r="E68" s="33">
         <v>0.7</v>
       </c>
-      <c r="F68" s="0">
+      <c r="F68" s="34">
         <v>7.7</v>
       </c>
       <c r="G68" s="0">
@@ -18898,22 +18904,22 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0">
+      <c r="A69" s="33">
         <v>1427</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="0">
+      <c r="C69" s="33">
         <v>911500</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E69" s="0">
+      <c r="E69" s="33">
         <v>3920</v>
       </c>
-      <c r="F69" s="0">
+      <c r="F69" s="34">
         <v>5719</v>
       </c>
       <c r="G69" s="0">
@@ -18925,22 +18931,22 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="0">
+      <c r="A70" s="33">
         <v>1427</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="0">
+      <c r="C70" s="33">
         <v>914000</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="E70" s="0">
+      <c r="E70" s="33">
         <v>0.12</v>
       </c>
-      <c r="F70" s="0">
+      <c r="F70" s="34">
         <v>1.28</v>
       </c>
       <c r="G70" s="0">
@@ -18952,22 +18958,22 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0">
+      <c r="A71" s="33">
         <v>1427</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="0">
+      <c r="C71" s="33">
         <v>920710</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E71" s="0">
+      <c r="E71" s="33">
         <v>1</v>
       </c>
-      <c r="F71" s="0">
+      <c r="F71" s="34">
         <v>3</v>
       </c>
       <c r="G71" s="0">
@@ -18979,22 +18985,22 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0">
+      <c r="A72" s="33">
         <v>1427</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="0">
+      <c r="C72" s="33">
         <v>920770</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="E72" s="0">
+      <c r="E72" s="33">
         <v>0.67</v>
       </c>
-      <c r="F72" s="0">
+      <c r="F72" s="34">
         <v>2</v>
       </c>
       <c r="G72" s="0">
@@ -19006,22 +19012,22 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0">
+      <c r="A73" s="33">
         <v>1427</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="0">
+      <c r="C73" s="33">
         <v>920830</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E73" s="0">
-        <v>8</v>
-      </c>
-      <c r="F73" s="0">
+      <c r="E73" s="33">
+        <v>8</v>
+      </c>
+      <c r="F73" s="34">
         <v>48</v>
       </c>
       <c r="G73" s="0">
@@ -19033,22 +19039,22 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0">
+      <c r="A74" s="33">
         <v>1427</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="0">
+      <c r="C74" s="33">
         <v>920850</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E74" s="0">
+      <c r="E74" s="33">
         <v>46.99</v>
       </c>
-      <c r="F74" s="0">
+      <c r="F74" s="34">
         <v>141</v>
       </c>
       <c r="G74" s="0">
@@ -19060,22 +19066,22 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0">
+      <c r="A75" s="33">
         <v>1427</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="0">
+      <c r="C75" s="33">
         <v>921120</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="E75" s="0">
+      <c r="E75" s="33">
         <v>124</v>
       </c>
-      <c r="F75" s="0">
+      <c r="F75" s="34">
         <v>596.4</v>
       </c>
       <c r="G75" s="0">
@@ -19087,22 +19093,22 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0">
+      <c r="A76" s="33">
         <v>1427</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="0">
+      <c r="C76" s="33">
         <v>921190</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="E76" s="0">
+      <c r="E76" s="33">
         <v>16</v>
       </c>
-      <c r="F76" s="0">
+      <c r="F76" s="34">
         <v>73.6</v>
       </c>
       <c r="G76" s="0">
@@ -19114,22 +19120,22 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0">
+      <c r="A77" s="33">
         <v>1427</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="0">
+      <c r="C77" s="33">
         <v>921570</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E77" s="0">
+      <c r="E77" s="33">
         <v>4</v>
       </c>
-      <c r="F77" s="0">
+      <c r="F77" s="34">
         <v>12</v>
       </c>
       <c r="G77" s="0">
@@ -19141,22 +19147,22 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0">
+      <c r="A78" s="33">
         <v>1427</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="0">
+      <c r="C78" s="33">
         <v>921700</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E78" s="0">
+      <c r="E78" s="33">
         <v>28.76</v>
       </c>
-      <c r="F78" s="0">
+      <c r="F78" s="34">
         <v>275.951</v>
       </c>
       <c r="G78" s="0">
@@ -19168,22 +19174,22 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0">
+      <c r="A79" s="33">
         <v>1427</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="0">
+      <c r="C79" s="33">
         <v>921910</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="E79" s="0">
+      <c r="E79" s="33">
         <v>1</v>
       </c>
-      <c r="F79" s="0">
+      <c r="F79" s="34">
         <v>5</v>
       </c>
       <c r="G79" s="0">
@@ -19195,22 +19201,22 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="0">
+      <c r="A80" s="33">
         <v>1427</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="0">
+      <c r="C80" s="33">
         <v>924210</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E80" s="0">
+      <c r="E80" s="33">
         <v>30</v>
       </c>
-      <c r="F80" s="0">
+      <c r="F80" s="34">
         <v>150</v>
       </c>
       <c r="G80" s="0">
@@ -19222,22 +19228,22 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="0">
+      <c r="A81" s="33">
         <v>1427</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="0">
+      <c r="C81" s="33">
         <v>924220</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E81" s="0">
+      <c r="E81" s="33">
         <v>0.05</v>
       </c>
-      <c r="F81" s="0">
+      <c r="F81" s="34">
         <v>0.25</v>
       </c>
       <c r="G81" s="0">
@@ -19249,22 +19255,22 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="0">
+      <c r="A82" s="33">
         <v>1427</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="0">
+      <c r="C82" s="33">
         <v>924230</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="E82" s="0">
+      <c r="E82" s="33">
         <v>19.1</v>
       </c>
-      <c r="F82" s="0">
+      <c r="F82" s="34">
         <v>95.5</v>
       </c>
       <c r="G82" s="0">
@@ -19276,22 +19282,22 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="0">
+      <c r="A83" s="33">
         <v>1427</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="0">
+      <c r="C83" s="33">
         <v>926600</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="E83" s="0">
+      <c r="E83" s="33">
         <v>24.8</v>
       </c>
-      <c r="F83" s="0">
+      <c r="F83" s="34">
         <v>114.23</v>
       </c>
       <c r="G83" s="0">
@@ -19303,22 +19309,22 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="0">
+      <c r="A84" s="33">
         <v>1427</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="0">
+      <c r="C84" s="33">
         <v>944930</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E84" s="0">
+      <c r="E84" s="33">
         <v>9</v>
       </c>
-      <c r="F84" s="0">
+      <c r="F84" s="34">
         <v>19.1</v>
       </c>
       <c r="G84" s="0">
@@ -19330,22 +19336,22 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="0">
+      <c r="A85" s="33">
         <v>1427</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="0">
+      <c r="C85" s="33">
         <v>963400</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E85" s="0">
+      <c r="E85" s="33">
         <v>5</v>
       </c>
-      <c r="F85" s="0">
+      <c r="F85" s="34">
         <v>15</v>
       </c>
       <c r="G85" s="0">
@@ -19357,22 +19363,22 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="0">
+      <c r="A86" s="33">
         <v>1427</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="0">
+      <c r="C86" s="33">
         <v>972200</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="E86" s="0">
+      <c r="E86" s="33">
         <v>3</v>
       </c>
-      <c r="F86" s="0">
+      <c r="F86" s="34">
         <v>0.3</v>
       </c>
       <c r="G86" s="0">
@@ -19384,22 +19390,22 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="0">
+      <c r="A87" s="33">
         <v>1427</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="0">
+      <c r="C87" s="33">
         <v>979500</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E87" s="0">
+      <c r="E87" s="33">
         <v>3</v>
       </c>
-      <c r="F87" s="0">
+      <c r="F87" s="34">
         <v>0.15</v>
       </c>
       <c r="G87" s="0">

--- a/out/AC/AC 1427.xlsx
+++ b/out/AC/AC 1427.xlsx
@@ -26952,7 +26952,7 @@
 </worksheet>
 </file>
 
-<file path=EPPlusLicense.txt>This workbook was created with the EPPlus library, licensed to Nikolaj R Christensen under the Polyform Noncommercial license, see https://polyformproject.org/licenses/noncommercial/1.0.0
-For more information about EPPlus, see https://epplussoftware.com/
+<file path=EPPlusLicense.txt>This workbook was created with the EPPlus library, licensed to Nikolaj R Christensen under the Polyform Noncommercial license, see https://polyformproject.org/licenses/noncommercial/1.0.0
+For more information about EPPlus, see https://epplussoftware.com/
 
 </file>